--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Result</t>
   </si>
@@ -545,6 +545,11 @@
 6)Click [Sign out] button
 </t>
     </r>
+  </si>
+  <si>
+    <t>1) Open the browser
+2) Open the  "http://automationpractice.com/index.php" site
+3)Log in to personal account</t>
   </si>
 </sst>
 </file>
@@ -921,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1264,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>44</v>
